--- a/Доставка счетов Череповец.xlsx
+++ b/Доставка счетов Череповец.xlsx
@@ -734,7 +734,7 @@
   <dimension ref="A2:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -828,13 +828,15 @@
         </is>
       </c>
       <c r="E7" s="4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7" s="4" t="n"/>
-      <c r="H7" s="5" t="n"/>
+      <c r="H7" s="5" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="n">
